--- a/fotographed varians.xlsx
+++ b/fotographed varians.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markh\Desktop\Skole\År3\Blok2\Puk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C73F3-ADD1-4EBB-9B7B-AA61F0329123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7429B5-DA9A-4D48-8CF7-7A38537C564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EBE0B93-6433-432F-B9D4-4969AB8EBA1E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
